--- a/dist/Sistema CPIM/registros.xlsx
+++ b/dist/Sistema CPIM/registros.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X88"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E88" sqref="E88"/>
@@ -7652,6 +7652,16 @@
           <t>135.118 AL 135.127</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>590000</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
           <t>No pagado</t>
@@ -7662,6 +7672,10 @@
           <t>No pagado</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr">
         <is>
           <t>\\DESKTOP-5KNILLM\Users\Usuario\Compartidos\cpim_sistema\dist\Sistema CPIM\trabajos\REGISTRACION\SILKE ADRIANO NAHUEL\MAROSEK SERGIO RICARDO</t>
@@ -7719,6 +7733,11 @@
           <t>8355</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr">
         <is>
           <t>No pagado</t>
@@ -7786,6 +7805,11 @@
           <t>146472</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
           <t>No pagado</t>
@@ -7853,6 +7877,11 @@
           <t>140728</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>26000</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr">
         <is>
           <t>No pagado</t>
@@ -8086,7 +8115,6 @@
           <t>Digital</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>Registración</t>
@@ -8122,12 +8150,6 @@
           <t>142868</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
           <t>No pagado</t>
@@ -8138,13 +8160,379 @@
           <t>No pagado</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr">
         <is>
           <t>\\DESKTOP-5KNILLM\Users\Usuario\Compartidos\cpim_sistema\dist\Sistema CPIM\trabajos\REGISTRACION\LEDESMA JUAN SEBASTIAN\PEREYRA JUAN VICTOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MMO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Físico</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>19 PLANOS</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Obra nueva</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>CABRERA NATALIA PAMELA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CABALLERO ELIDA ROXANA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>AV. UAN DOMINGO PERON (186) Nº 551</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>134/C/25</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MMO</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Físico</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>19 PLANOS</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Obra nueva</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTAZU JUAN JOSE </t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>CABALLERO ELIDA ROXANA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>AV. UAN DOMINGO PERON (186) Nº 551</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>134/C/25</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MMO</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Físico</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Obra nueva</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>CABRERA NATALIA PAMELA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>LOPEZ ENZO FACUNDO</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>CALLE PERU (104)- GARUPA</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>104/L/25</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>63305</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MMO</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Físico</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Obra nueva</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTAZU JUAN JOSE </t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>LOPEZ ENZO FACUNDO</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>CALLE PERU (104)- GARUPA</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>104/L/25</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>63305</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MMO</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Físico</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Registración</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>CABRERA NATALIA PAMELA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>GOMEZ ROSSANA ELIZABETH</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>CALLE SALTO DEL MOCONA Nº 451- GARUPA</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>137/G/25</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>59140</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>No pagado</t>
         </is>
       </c>
     </row>

--- a/dist/Sistema CPIM/registros.xlsx
+++ b/dist/Sistema CPIM/registros.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A95" sqref="A95"/>
@@ -8260,21 +8260,6 @@
           <t>218000</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>48000</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>48000</t>
-        </is>
-      </c>
       <c r="R87" t="inlineStr">
         <is>
           <t>No pagado</t>
@@ -8896,6 +8881,151 @@
       <c r="X96" s="5" t="inlineStr">
         <is>
           <t>\\DESKTOP-5KNILLM\Users\Usuario\Compartidos\cpim_sistema\dist\Sistema CPIM\trabajos\OBRA NUEVA\FARIAS OSVALDO\FARIAS LUCIANO OSVALDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MMO</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Obra nueva</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>CORDOVES MAURO IVAN</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>BUSTOS KARINA VANESSA</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CALLE (47) M. HERRERA N° 4907</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>34987/2024</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>4072</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>22090</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>\\DESKTOP-5KNILLM\Users\Usuario\Compartidos\cpim_sistema\dist\Sistema CPIM\trabajos\OBRA NUEVA\CORDOVES MAURO IVAN\BUSTOS KARINA VANESSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Registración</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>EDSBERG IVAN</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CORTES MARIA DANIELLA</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Lanusse N° 2072</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>15492/M/1996</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>16465</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>No pagado</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>\\DESKTOP-5KNILLM\Users\Usuario\Compartidos\cpim_sistema\dist\Sistema CPIM\trabajos\REGISTRACION\EDSBERG IVAN\CORTES MARIA DANIELLA</t>
         </is>
       </c>
     </row>
